--- a/biology/Botanique/Convolvulus_boissieri_subsp._compactus/Convolvulus_boissieri_subsp._compactus.xlsx
+++ b/biology/Botanique/Convolvulus_boissieri_subsp._compactus/Convolvulus_boissieri_subsp._compactus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus boissieri subsp. compactus est une sous-espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire de l'est du bassin méditerranéen (péninsule des Balkans et Asie Mineure).
 Ce sont des plantes herbacées à racines ligneuses, formant des coussinets denses, en dôme hémisphérique, de 20 à 40 cm de diamètre. L'espèce se rencontre dans les pentes de roches calcaires crayeuses, les éboulis, les pinèdes ouvertes et les maquis à Quercus coccifera, entre 200 et 2100 mètres d'altitude.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 avril 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 avril 2019) :
 Convolvulus boissieri subsp. compactus (Boiss.) Stace (préféré par BioLib)
 Convolvulus boissieri subsp. parnassicus (Boiss. &amp; Orph.) Kuzmanov
 Convolvulus cochlearis Griseb.
